--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927113.5585456551</v>
+        <v>925225.9770292535</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>391.6264362238447</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>113.2788623889629</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>7.744651378236042</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>20.48699093885593</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>379.7840807526732</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>155.1292598041375</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>194.0270836661629</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.0382101334481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>379.8984023085227</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>46.00903718674024</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.938553216412018</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>78.32618729827857</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>47.20011114811106</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>62.5308918730087</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>153.3305831768624</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.8695563686292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>92.30650587280812</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.21182350370111</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>108.0076463650088</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.8722505808162</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>57.69520250663606</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>109.3509998456309</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>169.827716759979</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>16.50299252505332</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>144.3581725811747</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857192</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2582.725997696038</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2364.0913306681</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2110.329545306192</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1779.266657962621</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1426.498002692507</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>463.5809975486215</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>463.5809975486215</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.006596680237</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1349.006596680237</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>990.740898073487</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>604.9526454752427</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="X5" t="n">
-        <v>2125.745768720171</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y5" t="n">
-        <v>1735.606436744359</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>229.7391536723322</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>229.7391536723322</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>229.7391536723322</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1130.084661047914</v>
+        <v>1684.117239186542</v>
       </c>
       <c r="C8" t="n">
-        <v>1130.084661047914</v>
+        <v>1315.154722246131</v>
       </c>
       <c r="D8" t="n">
-        <v>771.8189624411639</v>
+        <v>1315.154722246131</v>
       </c>
       <c r="E8" t="n">
-        <v>771.8189624411639</v>
+        <v>929.3664696478863</v>
       </c>
       <c r="F8" t="n">
-        <v>764.8734616919604</v>
+        <v>518.3805648582788</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>100.4167567564657</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1520.223993023726</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.084661047914</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,40 +4884,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>290.8087152951864</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,19 +5033,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5118,13 +5118,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>291.7839189057831</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,13 +5197,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1324.678650076285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1324.678650076285</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1035.550011289843</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1035.550011289843</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>746.1328412528823</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X13" t="n">
-        <v>746.1328412528823</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528823</v>
+        <v>441.9005583181189</v>
       </c>
     </row>
     <row r="14">
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.358329063101</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1344.036893611577</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293931</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="X16" t="n">
-        <v>933.2366688293931</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.358329063101</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>692.5547804049813</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>692.5547804049813</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>542.4381409926456</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102525</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1449.207357927901</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1449.207357927901</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1160.078719141459</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>905.3942309355724</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>615.9770608986119</v>
+        <v>785.7936752259997</v>
       </c>
       <c r="X19" t="n">
-        <v>615.9770608986119</v>
+        <v>785.7936752259997</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>785.7936752259997</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,16 +5744,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1189.897627781527</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1189.897627781527</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>900.480457744566</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491546</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212478</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1323227212478</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1323227212478</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1323227212478</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229245</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793944</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>841.7907383782456</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>672.8545554503387</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>522.7379160380029</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>522.7379160380029</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>375.8479685400926</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>207.6726468599131</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1327.373122315499</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1038.244483529058</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>783.5599953231706</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>494.14282528621</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.1887347098065</v>
+        <v>582.6866369260341</v>
       </c>
       <c r="C31" t="n">
-        <v>560.0134170632703</v>
+        <v>469.5113192794981</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440245</v>
+        <v>375.1555451485335</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>283.0033168475113</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>191.8742346309716</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>191.8742346309716</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933505</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252999</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1623.942368323876</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818805</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894289</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.336733737482</v>
+        <v>1045.834635953708</v>
       </c>
       <c r="X31" t="n">
-        <v>964.108048120835</v>
+        <v>873.605950337062</v>
       </c>
       <c r="Y31" t="n">
-        <v>799.0763342586755</v>
+        <v>708.5742364749028</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,31 +6853,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6929,10 +6929,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,19 +7260,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,37 +7309,37 @@
         <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7348,7 +7348,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,10 +7357,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010321</v>
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7834,22 +7834,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>171.2966883299259</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,10 +11142,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>116.9087390531961</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.23385149845811</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>135.3899181105946</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.59022680674085</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.7150969834656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>87.52547430912918</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>148.7089864799021</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518771</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>178.2297060335684</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>5.621317882561414</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>228.8277958299549</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>39.5628285219052</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>51.71984429841024</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>76.90922386460207</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523555</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>86.96156912685902</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>998959.4632405671</v>
+        <v>998959.4632405672</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>998959.4632405674</v>
+        <v>998959.4632405672</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1047689.026226649</v>
+        <v>1047689.02622665</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26314,25 @@
         <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="F2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="G2" t="n">
-        <v>391029.0597377087</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="I2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.059737709</v>
       </c>
       <c r="J2" t="n">
         <v>391029.0597377088</v>
@@ -26344,10 +26344,10 @@
         <v>410520.8849321421</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321422</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086698</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>22174.60758687073</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106722</v>
+        <v>40339.2301010673</v>
       </c>
       <c r="L4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>162028.9390822077</v>
       </c>
       <c r="D6" t="n">
-        <v>162028.9390822077</v>
+        <v>162028.9390822078</v>
       </c>
       <c r="E6" t="n">
-        <v>-248292.9102747747</v>
+        <v>-248390.3694007468</v>
       </c>
       <c r="F6" t="n">
-        <v>276867.1262021215</v>
+        <v>276769.6670761494</v>
       </c>
       <c r="G6" t="n">
-        <v>276867.1262021214</v>
+        <v>276769.6670761494</v>
       </c>
       <c r="H6" t="n">
-        <v>276867.1262021214</v>
+        <v>276769.6670761494</v>
       </c>
       <c r="I6" t="n">
-        <v>276867.1262021215</v>
+        <v>276769.6670761495</v>
       </c>
       <c r="J6" t="n">
-        <v>100443.9070095285</v>
+        <v>100346.4478835563</v>
       </c>
       <c r="K6" t="n">
-        <v>225692.093411135</v>
+        <v>225673.5996732003</v>
       </c>
       <c r="L6" t="n">
-        <v>257869.4774830585</v>
+        <v>257869.4774830588</v>
       </c>
       <c r="M6" t="n">
-        <v>133411.3690500886</v>
+        <v>133411.3690500883</v>
       </c>
       <c r="N6" t="n">
-        <v>268212.3842839257</v>
+        <v>268212.3842839255</v>
       </c>
       <c r="O6" t="n">
         <v>268212.3842839256</v>
       </c>
       <c r="P6" t="n">
-        <v>224049.7789810799</v>
+        <v>224049.7789810797</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108373</v>
+        <v>12.92863350108342</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15.2496095178667</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.13685042000864</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>278.5372228637417</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>266.0360073977351</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>27.09196498903827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>172.6229986659974</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.11845528385601</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.54644321864671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>33.88576771227224</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>277.9137355776169</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>165.3082678822158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>88.98361496077234</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
         <v>59.8253897034981</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,13 +36920,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>378.3901032614506</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>588.0961736712726</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>427.3331161036625</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -37953,10 +37953,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
